--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-effecteur-logical.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-effecteur-logical.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-01T14:16:04+00:00</t>
+    <t>2025-07-01T15:09:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -256,7 +256,7 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {elementdefinition-identifier}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -600,7 +600,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="32.609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="7.9765625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-effecteur-logical.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-effecteur-logical.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-01T15:09:42+00:00</t>
+    <t>2025-07-09T16:03:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-effecteur-logical.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-effecteur-logical.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T16:03:26+00:00</t>
+    <t>2025-08-18T13:46:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-effecteur-logical.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-effecteur-logical.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-18T13:46:32+00:00</t>
+    <t>2025-08-19T13:46:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-effecteur-logical.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-effecteur-logical.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-19T13:46:05+00:00</t>
+    <t>2025-08-19T14:52:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-effecteur-logical.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-effecteur-logical.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-19T14:52:01+00:00</t>
+    <t>2025-08-22T10:17:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-effecteur-logical.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-effecteur-logical.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T10:17:30+00:00</t>
+    <t>2025-08-22T12:56:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-effecteur-logical.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-effecteur-logical.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T12:56:47+00:00</t>
+    <t>2025-08-22T13:23:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-effecteur-logical.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-effecteur-logical.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T13:23:20+00:00</t>
+    <t>2025-08-22T14:29:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-effecteur-logical.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-effecteur-logical.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T14:29:38+00:00</t>
+    <t>2025-08-22T15:03:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
